--- a/data/pca/factorExposure/factorExposure_2011-11-23.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-23.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01054003701683805</v>
+        <v>0.01177523031885061</v>
       </c>
       <c r="C2">
-        <v>-0.03122275611510992</v>
+        <v>0.02175635887151818</v>
       </c>
       <c r="D2">
-        <v>-0.01799105108539087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.0236716997522478</v>
+      </c>
+      <c r="E2">
+        <v>-0.01085108515973934</v>
+      </c>
+      <c r="F2">
+        <v>0.02886430126785041</v>
+      </c>
+      <c r="G2">
+        <v>0.000558611454168225</v>
+      </c>
+      <c r="H2">
+        <v>-0.02394364079552815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07364165101205417</v>
+        <v>0.08797453522351831</v>
       </c>
       <c r="C4">
-        <v>-0.06086717049467237</v>
+        <v>0.03231121988248743</v>
       </c>
       <c r="D4">
-        <v>-0.07052375170884251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07365744183074552</v>
+      </c>
+      <c r="E4">
+        <v>-0.009052728132089615</v>
+      </c>
+      <c r="F4">
+        <v>0.04072255124091503</v>
+      </c>
+      <c r="G4">
+        <v>0.01597247245105144</v>
+      </c>
+      <c r="H4">
+        <v>0.04073377117906143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1095567906741261</v>
+        <v>0.1230191995195894</v>
       </c>
       <c r="C6">
-        <v>-0.06447116992683326</v>
+        <v>0.04581874170383647</v>
       </c>
       <c r="D6">
-        <v>0.002170490249750568</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01520160687718816</v>
+      </c>
+      <c r="E6">
+        <v>0.02977268321533523</v>
+      </c>
+      <c r="F6">
+        <v>0.05000949714725574</v>
+      </c>
+      <c r="G6">
+        <v>0.02312844968732793</v>
+      </c>
+      <c r="H6">
+        <v>-0.1284912847721611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05292703225068072</v>
+        <v>0.06493188218931782</v>
       </c>
       <c r="C7">
-        <v>-0.03740464362929673</v>
+        <v>0.0160745849830531</v>
       </c>
       <c r="D7">
-        <v>-0.03006837037899071</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05227872036436414</v>
+      </c>
+      <c r="E7">
+        <v>-0.03255364833745272</v>
+      </c>
+      <c r="F7">
+        <v>0.04316505783348417</v>
+      </c>
+      <c r="G7">
+        <v>-0.02962666850515447</v>
+      </c>
+      <c r="H7">
+        <v>0.01642168312569926</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03993563652289081</v>
+        <v>0.04460468440933921</v>
       </c>
       <c r="C8">
-        <v>-0.01764199181397916</v>
+        <v>0.01056075386122588</v>
       </c>
       <c r="D8">
-        <v>-0.06258875165723711</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02608610945100212</v>
+      </c>
+      <c r="E8">
+        <v>-0.0104900651147446</v>
+      </c>
+      <c r="F8">
+        <v>0.07117954626209913</v>
+      </c>
+      <c r="G8">
+        <v>0.07525865156501096</v>
+      </c>
+      <c r="H8">
+        <v>-0.01118672020252312</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07042048608433482</v>
+        <v>0.08041858891258295</v>
       </c>
       <c r="C9">
-        <v>-0.04708047060743034</v>
+        <v>0.02041409724435548</v>
       </c>
       <c r="D9">
-        <v>-0.06743371005325358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.06578127065341699</v>
+      </c>
+      <c r="E9">
+        <v>-0.02325060413222034</v>
+      </c>
+      <c r="F9">
+        <v>0.03362544268676151</v>
+      </c>
+      <c r="G9">
+        <v>0.02698202025269545</v>
+      </c>
+      <c r="H9">
+        <v>0.04265917897937088</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02550869768018221</v>
+        <v>0.04603213161241299</v>
       </c>
       <c r="C10">
-        <v>-0.02131698507409191</v>
+        <v>0.08292789811228957</v>
       </c>
       <c r="D10">
-        <v>0.1691664055665265</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1693923328683527</v>
+      </c>
+      <c r="E10">
+        <v>-0.03981897694045824</v>
+      </c>
+      <c r="F10">
+        <v>0.05121227014765706</v>
+      </c>
+      <c r="G10">
+        <v>-0.03658538289226185</v>
+      </c>
+      <c r="H10">
+        <v>-0.0537361904994276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06654625602527602</v>
+        <v>0.07329983720470112</v>
       </c>
       <c r="C11">
-        <v>-0.04358863966088893</v>
+        <v>0.01176885909158057</v>
       </c>
       <c r="D11">
-        <v>-0.05400119878584474</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06581804459303754</v>
+      </c>
+      <c r="E11">
+        <v>0.0004027116360996749</v>
+      </c>
+      <c r="F11">
+        <v>0.03340531902571335</v>
+      </c>
+      <c r="G11">
+        <v>0.04745779433438321</v>
+      </c>
+      <c r="H11">
+        <v>0.06596108205054484</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05626285743373969</v>
+        <v>0.06753823416138208</v>
       </c>
       <c r="C12">
-        <v>-0.05252200641047871</v>
+        <v>0.02624395951837077</v>
       </c>
       <c r="D12">
-        <v>-0.04587006970458862</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05371395381358991</v>
+      </c>
+      <c r="E12">
+        <v>-0.01116215845233709</v>
+      </c>
+      <c r="F12">
+        <v>0.02196361751503779</v>
+      </c>
+      <c r="G12">
+        <v>0.02366447297847378</v>
+      </c>
+      <c r="H12">
+        <v>0.02950907883929166</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06885508532017855</v>
+        <v>0.07037664078214205</v>
       </c>
       <c r="C13">
-        <v>-0.05103652938940387</v>
+        <v>0.02438429571535149</v>
       </c>
       <c r="D13">
-        <v>-0.0362981072614298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04158637255053128</v>
+      </c>
+      <c r="E13">
+        <v>-0.005255476683444977</v>
+      </c>
+      <c r="F13">
+        <v>0.02401147848389344</v>
+      </c>
+      <c r="G13">
+        <v>0.02348918979658774</v>
+      </c>
+      <c r="H13">
+        <v>0.05438244943035629</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03005796186698996</v>
+        <v>0.03964633278354814</v>
       </c>
       <c r="C14">
-        <v>-0.03100022126936152</v>
+        <v>0.02588516961802228</v>
       </c>
       <c r="D14">
-        <v>0.007270384852166808</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0158629606108866</v>
+      </c>
+      <c r="E14">
+        <v>-0.02530130153851189</v>
+      </c>
+      <c r="F14">
+        <v>0.01504621596971906</v>
+      </c>
+      <c r="G14">
+        <v>0.01726433267973772</v>
+      </c>
+      <c r="H14">
+        <v>0.06361077131329783</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04147768906164263</v>
+        <v>0.04046616219825372</v>
       </c>
       <c r="C15">
-        <v>-0.01433186858667711</v>
+        <v>0.003520200286164253</v>
       </c>
       <c r="D15">
-        <v>-0.02324054143533781</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01091962207748389</v>
+      </c>
+      <c r="E15">
+        <v>-0.03451218932932593</v>
+      </c>
+      <c r="F15">
+        <v>0.003420148907269487</v>
+      </c>
+      <c r="G15">
+        <v>0.029968138755972</v>
+      </c>
+      <c r="H15">
+        <v>0.02813074843087976</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05593586999108133</v>
+        <v>0.06889221326649599</v>
       </c>
       <c r="C16">
-        <v>-0.0414139589693274</v>
+        <v>0.01593712573260505</v>
       </c>
       <c r="D16">
-        <v>-0.05467900420024818</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06515723364907536</v>
+      </c>
+      <c r="E16">
+        <v>-0.003733333465400575</v>
+      </c>
+      <c r="F16">
+        <v>0.02939961474581651</v>
+      </c>
+      <c r="G16">
+        <v>0.02089844287671626</v>
+      </c>
+      <c r="H16">
+        <v>0.04929970034292399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06420502157548806</v>
+        <v>0.06327439309243527</v>
       </c>
       <c r="C20">
-        <v>-0.03058767478390892</v>
+        <v>0.003633613982197553</v>
       </c>
       <c r="D20">
-        <v>-0.04374650933553854</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04053021748096793</v>
+      </c>
+      <c r="E20">
+        <v>-0.004206271657936603</v>
+      </c>
+      <c r="F20">
+        <v>0.02582420439557418</v>
+      </c>
+      <c r="G20">
+        <v>0.01489626951901244</v>
+      </c>
+      <c r="H20">
+        <v>0.04570584545166639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03289555674805851</v>
+        <v>0.02949800225928526</v>
       </c>
       <c r="C21">
-        <v>-0.00974347738658376</v>
+        <v>-0.004285494269420722</v>
       </c>
       <c r="D21">
-        <v>-0.01239468820262922</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01838798394466914</v>
+      </c>
+      <c r="E21">
+        <v>-0.04112339837911314</v>
+      </c>
+      <c r="F21">
+        <v>-0.01288968673668984</v>
+      </c>
+      <c r="G21">
+        <v>0.009871417988288712</v>
+      </c>
+      <c r="H21">
+        <v>-0.04597400821071159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.078461232115001</v>
+        <v>0.06891828984547008</v>
       </c>
       <c r="C22">
-        <v>-0.0699347221705829</v>
+        <v>0.01591285555017304</v>
       </c>
       <c r="D22">
-        <v>-0.1522823109899076</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1123252424821283</v>
+      </c>
+      <c r="E22">
+        <v>-0.6113026641206113</v>
+      </c>
+      <c r="F22">
+        <v>-0.05488988739650958</v>
+      </c>
+      <c r="G22">
+        <v>-0.1653899699255909</v>
+      </c>
+      <c r="H22">
+        <v>-0.1384884102741346</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07955987644355399</v>
+        <v>0.06986621083439661</v>
       </c>
       <c r="C23">
-        <v>-0.0684124973020461</v>
+        <v>0.01428502646143123</v>
       </c>
       <c r="D23">
-        <v>-0.1535546982071239</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1131586686324011</v>
+      </c>
+      <c r="E23">
+        <v>-0.6133786049395874</v>
+      </c>
+      <c r="F23">
+        <v>-0.05421500011822446</v>
+      </c>
+      <c r="G23">
+        <v>-0.1598760038586047</v>
+      </c>
+      <c r="H23">
+        <v>-0.1340382284549797</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07279814352498651</v>
+        <v>0.07873543853320092</v>
       </c>
       <c r="C24">
-        <v>-0.05283829747319298</v>
+        <v>0.019491797022267</v>
       </c>
       <c r="D24">
-        <v>-0.05957066486395413</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06505204263112078</v>
+      </c>
+      <c r="E24">
+        <v>-0.01187814486893635</v>
+      </c>
+      <c r="F24">
+        <v>0.03736250160106256</v>
+      </c>
+      <c r="G24">
+        <v>0.03597275009994208</v>
+      </c>
+      <c r="H24">
+        <v>0.03154821732944089</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07190017195350996</v>
+        <v>0.07817289761563449</v>
       </c>
       <c r="C25">
-        <v>-0.05619959340063135</v>
+        <v>0.02563225362867457</v>
       </c>
       <c r="D25">
-        <v>-0.05534863903538703</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05720391542303973</v>
+      </c>
+      <c r="E25">
+        <v>-0.01380809560046469</v>
+      </c>
+      <c r="F25">
+        <v>0.03188579141960449</v>
+      </c>
+      <c r="G25">
+        <v>0.04370344879433815</v>
+      </c>
+      <c r="H25">
+        <v>0.04259586785985797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04415504472722379</v>
+        <v>0.043736460590972</v>
       </c>
       <c r="C26">
-        <v>-0.01544940988993734</v>
+        <v>0.0006224171216618235</v>
       </c>
       <c r="D26">
-        <v>-0.01099484503181511</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01942135761384258</v>
+      </c>
+      <c r="E26">
+        <v>-0.04312856329536734</v>
+      </c>
+      <c r="F26">
+        <v>0.02803105640051657</v>
+      </c>
+      <c r="G26">
+        <v>0.02140450032715818</v>
+      </c>
+      <c r="H26">
+        <v>0.04269915350922314</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03933137132671888</v>
+        <v>0.06670834143659481</v>
       </c>
       <c r="C28">
-        <v>-0.0576079455399536</v>
+        <v>0.1493486290893816</v>
       </c>
       <c r="D28">
-        <v>0.3069707742964213</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.2834402992779069</v>
+      </c>
+      <c r="E28">
+        <v>-0.0410772870686186</v>
+      </c>
+      <c r="F28">
+        <v>0.05195942191016915</v>
+      </c>
+      <c r="G28">
+        <v>0.02124133446543275</v>
+      </c>
+      <c r="H28">
+        <v>-0.05646701941107497</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04402267769261982</v>
+        <v>0.04796540690136303</v>
       </c>
       <c r="C29">
-        <v>-0.04085362817368771</v>
+        <v>0.02867849592837422</v>
       </c>
       <c r="D29">
-        <v>-9.219533748806983e-05</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.0170921475730157</v>
+      </c>
+      <c r="E29">
+        <v>-0.05456793927530015</v>
+      </c>
+      <c r="F29">
+        <v>0.01440366714391785</v>
+      </c>
+      <c r="G29">
+        <v>0.007804778508223162</v>
+      </c>
+      <c r="H29">
+        <v>0.0783853155691366</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.126564901332743</v>
+        <v>0.1252763061252851</v>
       </c>
       <c r="C30">
-        <v>-0.1009513433599913</v>
+        <v>0.0478593117508077</v>
       </c>
       <c r="D30">
-        <v>-0.1113461768107752</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09006042088029736</v>
+      </c>
+      <c r="E30">
+        <v>-0.05605349940859632</v>
+      </c>
+      <c r="F30">
+        <v>0.01750065315274641</v>
+      </c>
+      <c r="G30">
+        <v>0.06230816409949521</v>
+      </c>
+      <c r="H30">
+        <v>-0.04331992855526036</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04738433639473204</v>
+        <v>0.04892103172959232</v>
       </c>
       <c r="C31">
-        <v>-0.02619204508274301</v>
+        <v>0.006530243882156727</v>
       </c>
       <c r="D31">
-        <v>-0.01969884797704861</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03597438920777128</v>
+      </c>
+      <c r="E31">
+        <v>-0.02142482132437919</v>
+      </c>
+      <c r="F31">
+        <v>0.009464897078411827</v>
+      </c>
+      <c r="G31">
+        <v>-0.002678230670971449</v>
+      </c>
+      <c r="H31">
+        <v>0.06942321938075881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03378115403758788</v>
+        <v>0.03689954141233703</v>
       </c>
       <c r="C32">
-        <v>-0.02494064195991628</v>
+        <v>0.01975086052657224</v>
       </c>
       <c r="D32">
-        <v>-0.03201324561294622</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01435972066746982</v>
+      </c>
+      <c r="E32">
+        <v>-0.04581694944772161</v>
+      </c>
+      <c r="F32">
+        <v>-0.003757255144935132</v>
+      </c>
+      <c r="G32">
+        <v>0.04613835245058549</v>
+      </c>
+      <c r="H32">
+        <v>0.006886902567447918</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08445693599268321</v>
+        <v>0.09403926462042878</v>
       </c>
       <c r="C33">
-        <v>-0.04790627893270511</v>
+        <v>0.01784824516059158</v>
       </c>
       <c r="D33">
-        <v>-0.04534077111805867</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05258721412367717</v>
+      </c>
+      <c r="E33">
+        <v>-0.01067749820433868</v>
+      </c>
+      <c r="F33">
+        <v>0.001296401142204384</v>
+      </c>
+      <c r="G33">
+        <v>0.006555991721807357</v>
+      </c>
+      <c r="H33">
+        <v>0.06456719035846831</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05813503438093275</v>
+        <v>0.06613820017762757</v>
       </c>
       <c r="C34">
-        <v>-0.0290409241544424</v>
+        <v>0.004656167245544407</v>
       </c>
       <c r="D34">
-        <v>-0.04875453916364127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05031013768878897</v>
+      </c>
+      <c r="E34">
+        <v>-0.006624188226389821</v>
+      </c>
+      <c r="F34">
+        <v>0.02067738943009267</v>
+      </c>
+      <c r="G34">
+        <v>0.02877122037214859</v>
+      </c>
+      <c r="H34">
+        <v>0.05413160575089351</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03550973266780433</v>
+        <v>0.03743547689299027</v>
       </c>
       <c r="C35">
-        <v>-0.01411912840845899</v>
+        <v>0.003843336811750667</v>
       </c>
       <c r="D35">
-        <v>-0.02117879098349971</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01865951740284705</v>
+      </c>
+      <c r="E35">
+        <v>-0.02327132731871764</v>
+      </c>
+      <c r="F35">
+        <v>-0.01598908843464699</v>
+      </c>
+      <c r="G35">
+        <v>-0.004548046877669213</v>
+      </c>
+      <c r="H35">
+        <v>0.03416307038263683</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02547976153298876</v>
+        <v>0.0274887720260767</v>
       </c>
       <c r="C36">
-        <v>-0.02094661626952158</v>
+        <v>0.01042691647310114</v>
       </c>
       <c r="D36">
-        <v>-0.01840659392020317</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02036924103175582</v>
+      </c>
+      <c r="E36">
+        <v>-0.03193397233668507</v>
+      </c>
+      <c r="F36">
+        <v>0.02606198546183652</v>
+      </c>
+      <c r="G36">
+        <v>0.01179811984981086</v>
+      </c>
+      <c r="H36">
+        <v>0.04349162036720515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04917144437217272</v>
+        <v>0.04759087634971142</v>
       </c>
       <c r="C38">
-        <v>-0.01067548432821358</v>
+        <v>-0.005953347559254261</v>
       </c>
       <c r="D38">
-        <v>-0.008401603965872285</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.0218345331341296</v>
+      </c>
+      <c r="E38">
+        <v>-0.04995246146315602</v>
+      </c>
+      <c r="F38">
+        <v>-0.001390747005128108</v>
+      </c>
+      <c r="G38">
+        <v>0.003305631364225528</v>
+      </c>
+      <c r="H38">
+        <v>0.02476175902508649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09066170820863563</v>
+        <v>0.1018206086069972</v>
       </c>
       <c r="C39">
-        <v>-0.07506587744313921</v>
+        <v>0.04048618002546656</v>
       </c>
       <c r="D39">
-        <v>-0.04739314678332053</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06801485393510157</v>
+      </c>
+      <c r="E39">
+        <v>-0.003058007191887727</v>
+      </c>
+      <c r="F39">
+        <v>0.00178537795043388</v>
+      </c>
+      <c r="G39">
+        <v>0.05243899780401858</v>
+      </c>
+      <c r="H39">
+        <v>0.0199111159008102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08020844009528458</v>
+        <v>0.06184974670254066</v>
       </c>
       <c r="C40">
-        <v>-0.04084099345768519</v>
+        <v>-0.002108994112110535</v>
       </c>
       <c r="D40">
-        <v>-0.01220701381930291</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03478792937318256</v>
+      </c>
+      <c r="E40">
+        <v>-0.03723399651941711</v>
+      </c>
+      <c r="F40">
+        <v>-0.03602507052433239</v>
+      </c>
+      <c r="G40">
+        <v>0.06213714653076015</v>
+      </c>
+      <c r="H40">
+        <v>-0.0727450334008183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04580143663354472</v>
+        <v>0.04703522865563241</v>
       </c>
       <c r="C41">
-        <v>-0.02011522286188143</v>
+        <v>0.0001065595748015956</v>
       </c>
       <c r="D41">
-        <v>-0.03292197390884413</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03300602882493806</v>
+      </c>
+      <c r="E41">
+        <v>-0.002019334049770476</v>
+      </c>
+      <c r="F41">
+        <v>-0.01357793711880909</v>
+      </c>
+      <c r="G41">
+        <v>0.008483551479036641</v>
+      </c>
+      <c r="H41">
+        <v>0.02913078992298134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05427071469006414</v>
+        <v>0.06091596418779423</v>
       </c>
       <c r="C43">
-        <v>-0.03268820065481831</v>
+        <v>0.01494445588063261</v>
       </c>
       <c r="D43">
-        <v>-0.00635427325580665</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03146005431980476</v>
+      </c>
+      <c r="E43">
+        <v>-0.01807845925370817</v>
+      </c>
+      <c r="F43">
+        <v>0.01364849275392634</v>
+      </c>
+      <c r="G43">
+        <v>-0.01504081372572941</v>
+      </c>
+      <c r="H43">
+        <v>0.06408581698306486</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09726105142651502</v>
+        <v>0.09537264711161478</v>
       </c>
       <c r="C44">
-        <v>-0.0364214744525028</v>
+        <v>0.0006685922806320715</v>
       </c>
       <c r="D44">
-        <v>-0.04939965537948982</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05322073536684149</v>
+      </c>
+      <c r="E44">
+        <v>-0.07282998362223364</v>
+      </c>
+      <c r="F44">
+        <v>0.07756430490332233</v>
+      </c>
+      <c r="G44">
+        <v>0.07630893954883737</v>
+      </c>
+      <c r="H44">
+        <v>0.05193463074249645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02502911960327643</v>
+        <v>0.03551477795587084</v>
       </c>
       <c r="C46">
-        <v>-0.02349194954573304</v>
+        <v>0.01295899724837353</v>
       </c>
       <c r="D46">
-        <v>-0.03429218489932938</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03996611096966322</v>
+      </c>
+      <c r="E46">
+        <v>-0.02908106301955784</v>
+      </c>
+      <c r="F46">
+        <v>0.01598613596142825</v>
+      </c>
+      <c r="G46">
+        <v>-0.005295805024924985</v>
+      </c>
+      <c r="H46">
+        <v>0.03259599897303107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0308931271693345</v>
+        <v>0.04015278738281333</v>
       </c>
       <c r="C47">
-        <v>-0.02426947431422069</v>
+        <v>0.01919134058014823</v>
       </c>
       <c r="D47">
-        <v>0.001296950456122016</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01171837180111591</v>
+      </c>
+      <c r="E47">
+        <v>-0.04000813975431556</v>
+      </c>
+      <c r="F47">
+        <v>-0.007591677070112801</v>
+      </c>
+      <c r="G47">
+        <v>-0.02947276560747844</v>
+      </c>
+      <c r="H47">
+        <v>0.03549782390295329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03606644814302393</v>
+        <v>0.03947108090923333</v>
       </c>
       <c r="C48">
-        <v>-0.02858678880589993</v>
+        <v>0.01400592414042916</v>
       </c>
       <c r="D48">
-        <v>-0.02747728524283953</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02258657497741914</v>
+      </c>
+      <c r="E48">
+        <v>-0.03972676870686319</v>
+      </c>
+      <c r="F48">
+        <v>0.008167411839109986</v>
+      </c>
+      <c r="G48">
+        <v>0.01826871370986441</v>
+      </c>
+      <c r="H48">
+        <v>0.02598137322753643</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1595823599662472</v>
+        <v>0.1969243429440717</v>
       </c>
       <c r="C49">
-        <v>-0.05319836857272753</v>
+        <v>0.03397131647840943</v>
       </c>
       <c r="D49">
-        <v>-0.005675872867356406</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03057325214862921</v>
+      </c>
+      <c r="E49">
+        <v>0.1690714019510835</v>
+      </c>
+      <c r="F49">
+        <v>0.04402537377827928</v>
+      </c>
+      <c r="G49">
+        <v>-0.1487647474634284</v>
+      </c>
+      <c r="H49">
+        <v>-0.2219065211094465</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0424542288023551</v>
+        <v>0.04505207716625033</v>
       </c>
       <c r="C50">
-        <v>-0.02605514563474629</v>
+        <v>0.007004483638692219</v>
       </c>
       <c r="D50">
-        <v>-0.0359220943053019</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04113295652618131</v>
+      </c>
+      <c r="E50">
+        <v>-0.02959262873060581</v>
+      </c>
+      <c r="F50">
+        <v>0.004244740924429197</v>
+      </c>
+      <c r="G50">
+        <v>-0.002684736972344014</v>
+      </c>
+      <c r="H50">
+        <v>0.07206372604118702</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02471556285957933</v>
+        <v>0.03483112657303168</v>
       </c>
       <c r="C51">
-        <v>-0.006112834462518708</v>
+        <v>0.005039570370782844</v>
       </c>
       <c r="D51">
-        <v>5.122714558087521e-05</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.002389719962566116</v>
+      </c>
+      <c r="E51">
+        <v>-0.01222022568807372</v>
+      </c>
+      <c r="F51">
+        <v>0.01090514326789539</v>
+      </c>
+      <c r="G51">
+        <v>-0.01523590105548463</v>
+      </c>
+      <c r="H51">
+        <v>-0.01719428846309341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1513464487047164</v>
+        <v>0.1607725129645829</v>
       </c>
       <c r="C53">
-        <v>-0.08533802613285867</v>
+        <v>0.04983610476465739</v>
       </c>
       <c r="D53">
-        <v>0.008634714541764467</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03119363077410216</v>
+      </c>
+      <c r="E53">
+        <v>0.03042387498781517</v>
+      </c>
+      <c r="F53">
+        <v>-0.000389121162251637</v>
+      </c>
+      <c r="G53">
+        <v>0.007705080069831965</v>
+      </c>
+      <c r="H53">
+        <v>0.2037933119478461</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05783227967228174</v>
+        <v>0.05779436502171828</v>
       </c>
       <c r="C54">
-        <v>-0.03267262331816023</v>
+        <v>0.0156847225283099</v>
       </c>
       <c r="D54">
-        <v>-0.02181145202957788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01963223302909969</v>
+      </c>
+      <c r="E54">
+        <v>-0.05186114226257622</v>
+      </c>
+      <c r="F54">
+        <v>0.0169912496459197</v>
+      </c>
+      <c r="G54">
+        <v>0.05687726128853445</v>
+      </c>
+      <c r="H54">
+        <v>0.04254946010952093</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09887517197700409</v>
+        <v>0.1013817681553635</v>
       </c>
       <c r="C55">
-        <v>-0.05528955377054597</v>
+        <v>0.02700791884741318</v>
       </c>
       <c r="D55">
-        <v>-0.01164412634266925</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03188456659598909</v>
+      </c>
+      <c r="E55">
+        <v>0.001830964246279507</v>
+      </c>
+      <c r="F55">
+        <v>0.01546959389237276</v>
+      </c>
+      <c r="G55">
+        <v>0.02311650388037292</v>
+      </c>
+      <c r="H55">
+        <v>0.1561683131223361</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1455429249052934</v>
+        <v>0.1548955956915544</v>
       </c>
       <c r="C56">
-        <v>-0.0881237301852172</v>
+        <v>0.04665870363572053</v>
       </c>
       <c r="D56">
-        <v>0.005346054855780779</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04764981611446927</v>
+      </c>
+      <c r="E56">
+        <v>0.01379366899383032</v>
+      </c>
+      <c r="F56">
+        <v>0.02178171336443699</v>
+      </c>
+      <c r="G56">
+        <v>0.01566742545034313</v>
+      </c>
+      <c r="H56">
+        <v>0.2064019924860691</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1304451582371632</v>
+        <v>0.09864526953174754</v>
       </c>
       <c r="C58">
-        <v>0.01714007816172738</v>
+        <v>-0.06979498890400709</v>
       </c>
       <c r="D58">
-        <v>-0.05165229221668159</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02198753410343965</v>
+      </c>
+      <c r="E58">
+        <v>-0.1221436006625037</v>
+      </c>
+      <c r="F58">
+        <v>0.02761793757639107</v>
+      </c>
+      <c r="G58">
+        <v>-0.07071537418679825</v>
+      </c>
+      <c r="H58">
+        <v>-0.1766797569797987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1149610200316767</v>
+        <v>0.1451025516574958</v>
       </c>
       <c r="C59">
-        <v>-0.07195909168470886</v>
+        <v>0.1651308591716575</v>
       </c>
       <c r="D59">
-        <v>0.4074976731419215</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3368620848755542</v>
+      </c>
+      <c r="E59">
+        <v>-0.03796487105264593</v>
+      </c>
+      <c r="F59">
+        <v>0.002943509768109416</v>
+      </c>
+      <c r="G59">
+        <v>0.006703844010659356</v>
+      </c>
+      <c r="H59">
+        <v>0.01437344312535091</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2046072776825682</v>
+        <v>0.2376210600847906</v>
       </c>
       <c r="C60">
-        <v>-0.1049491033024048</v>
+        <v>0.06404740596895803</v>
       </c>
       <c r="D60">
-        <v>-0.004530094748288215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05301342303765064</v>
+      </c>
+      <c r="E60">
+        <v>0.1125509334072077</v>
+      </c>
+      <c r="F60">
+        <v>0.05105145619183261</v>
+      </c>
+      <c r="G60">
+        <v>-0.03147444310679671</v>
+      </c>
+      <c r="H60">
+        <v>-0.1454673039333634</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07842229004955584</v>
+        <v>0.08609314573093574</v>
       </c>
       <c r="C61">
-        <v>-0.05007364229188509</v>
+        <v>0.02454055522242189</v>
       </c>
       <c r="D61">
-        <v>-0.02933813420160103</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04631892797425621</v>
+      </c>
+      <c r="E61">
+        <v>-0.006928971838116751</v>
+      </c>
+      <c r="F61">
+        <v>0.01225285943382823</v>
+      </c>
+      <c r="G61">
+        <v>0.03494565722760568</v>
+      </c>
+      <c r="H61">
+        <v>0.06404956340262555</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1296791437110464</v>
+        <v>0.1347069830525622</v>
       </c>
       <c r="C62">
-        <v>-0.05665266893421749</v>
+        <v>0.01785950430453271</v>
       </c>
       <c r="D62">
-        <v>0.005797573089297452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04473108400625195</v>
+      </c>
+      <c r="E62">
+        <v>0.04803033055618501</v>
+      </c>
+      <c r="F62">
+        <v>-0.0188723084226465</v>
+      </c>
+      <c r="G62">
+        <v>0.03588887237017604</v>
+      </c>
+      <c r="H62">
+        <v>0.1949458347944047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05007827283671082</v>
+        <v>0.04852038034008025</v>
       </c>
       <c r="C63">
-        <v>-0.02544910663413279</v>
+        <v>0.009462009431605361</v>
       </c>
       <c r="D63">
-        <v>-0.02709962132143656</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02433242887623165</v>
+      </c>
+      <c r="E63">
+        <v>-0.04074176140122098</v>
+      </c>
+      <c r="F63">
+        <v>-0.0003773850964561155</v>
+      </c>
+      <c r="G63">
+        <v>0.03324730970822066</v>
+      </c>
+      <c r="H63">
+        <v>0.03494268283000816</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1068414686254734</v>
+        <v>0.1102907854282727</v>
       </c>
       <c r="C64">
-        <v>-0.04625177790194637</v>
+        <v>0.020316528441472</v>
       </c>
       <c r="D64">
-        <v>-0.01846723062236694</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.0292949512241946</v>
+      </c>
+      <c r="E64">
+        <v>-0.04002856730469952</v>
+      </c>
+      <c r="F64">
+        <v>0.0470568103407279</v>
+      </c>
+      <c r="G64">
+        <v>0.06446841453447917</v>
+      </c>
+      <c r="H64">
+        <v>0.0253681815716374</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1249894191929053</v>
+        <v>0.1296372663294076</v>
       </c>
       <c r="C65">
-        <v>-0.07112939835712109</v>
+        <v>0.04872300777520252</v>
       </c>
       <c r="D65">
-        <v>-0.006247822779099753</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.01816972929547426</v>
+      </c>
+      <c r="E65">
+        <v>0.009538326027302554</v>
+      </c>
+      <c r="F65">
+        <v>0.03516448861827007</v>
+      </c>
+      <c r="G65">
+        <v>0.04396592781375151</v>
+      </c>
+      <c r="H65">
+        <v>-0.1516714279872948</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1482827933625554</v>
+        <v>0.1526307167770132</v>
       </c>
       <c r="C66">
-        <v>-0.08892553620868175</v>
+        <v>0.03077057903256203</v>
       </c>
       <c r="D66">
-        <v>-0.09035908820919308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1069151894845957</v>
+      </c>
+      <c r="E66">
+        <v>0.02539157612109065</v>
+      </c>
+      <c r="F66">
+        <v>0.006259154434004634</v>
+      </c>
+      <c r="G66">
+        <v>0.07455401328132076</v>
+      </c>
+      <c r="H66">
+        <v>0.08372106898090881</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07813033610585121</v>
+        <v>0.08686253499806755</v>
       </c>
       <c r="C67">
-        <v>-0.01857893313628643</v>
+        <v>-0.0007495572886519915</v>
       </c>
       <c r="D67">
-        <v>-0.01490972872518977</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03334952598441427</v>
+      </c>
+      <c r="E67">
+        <v>-0.02126064339680926</v>
+      </c>
+      <c r="F67">
+        <v>0.01437747445092422</v>
+      </c>
+      <c r="G67">
+        <v>-0.01204058894610592</v>
+      </c>
+      <c r="H67">
+        <v>0.02174754258178023</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04866549929467979</v>
+        <v>0.06000342087156225</v>
       </c>
       <c r="C68">
-        <v>-0.04072906892755104</v>
+        <v>0.1158699629629597</v>
       </c>
       <c r="D68">
-        <v>0.2597744804783791</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2496635625283306</v>
+      </c>
+      <c r="E68">
+        <v>-0.04771821356967893</v>
+      </c>
+      <c r="F68">
+        <v>0.01186520902679728</v>
+      </c>
+      <c r="G68">
+        <v>-0.001448302764598416</v>
+      </c>
+      <c r="H68">
+        <v>0.02101685846264845</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05332339745753354</v>
+        <v>0.0520956710344693</v>
       </c>
       <c r="C69">
-        <v>-0.02395262633130704</v>
+        <v>0.004380760195799269</v>
       </c>
       <c r="D69">
-        <v>-0.01986682521496884</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02167318372234719</v>
+      </c>
+      <c r="E69">
+        <v>-0.02310695072566061</v>
+      </c>
+      <c r="F69">
+        <v>-0.01068775989884306</v>
+      </c>
+      <c r="G69">
+        <v>-0.0004522305951745648</v>
+      </c>
+      <c r="H69">
+        <v>0.04563829508031819</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.006613596626029413</v>
+        <v>0.03084281800383709</v>
       </c>
       <c r="C70">
-        <v>0.001317605942691673</v>
+        <v>0.005100280140516378</v>
       </c>
       <c r="D70">
-        <v>0.01217258160104483</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005947937134102395</v>
+      </c>
+      <c r="E70">
+        <v>0.02427221662861786</v>
+      </c>
+      <c r="F70">
+        <v>-0.007801753743574449</v>
+      </c>
+      <c r="G70">
+        <v>-0.02681447706887472</v>
+      </c>
+      <c r="H70">
+        <v>-0.03540501643183244</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0466830616429092</v>
+        <v>0.06603067599570181</v>
       </c>
       <c r="C71">
-        <v>-0.03836012636871897</v>
+        <v>0.1291940674868742</v>
       </c>
       <c r="D71">
-        <v>0.2912347827909024</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2755989453989869</v>
+      </c>
+      <c r="E71">
+        <v>-0.04820155268029137</v>
+      </c>
+      <c r="F71">
+        <v>0.03780662174498815</v>
+      </c>
+      <c r="G71">
+        <v>-0.002106086224101866</v>
+      </c>
+      <c r="H71">
+        <v>0.01496206442549634</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1374141259672231</v>
+        <v>0.1425901377393868</v>
       </c>
       <c r="C72">
-        <v>-0.06438648038613123</v>
+        <v>0.03280476273676597</v>
       </c>
       <c r="D72">
-        <v>0.01601726268618215</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007510074525136098</v>
+      </c>
+      <c r="E72">
+        <v>0.04663575870792065</v>
+      </c>
+      <c r="F72">
+        <v>-0.1594876788115698</v>
+      </c>
+      <c r="G72">
+        <v>0.1107552125701577</v>
+      </c>
+      <c r="H72">
+        <v>-0.0007018772109743034</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2794258847954112</v>
+        <v>0.28485234921547</v>
       </c>
       <c r="C73">
-        <v>-0.1004404427310752</v>
+        <v>0.009486264115827708</v>
       </c>
       <c r="D73">
-        <v>-0.04184590981077563</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09787484639902584</v>
+      </c>
+      <c r="E73">
+        <v>0.2573571885762079</v>
+      </c>
+      <c r="F73">
+        <v>0.06782355151409213</v>
+      </c>
+      <c r="G73">
+        <v>-0.2609897635535346</v>
+      </c>
+      <c r="H73">
+        <v>-0.3929413181102888</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07791874690786922</v>
+        <v>0.08967796100560139</v>
       </c>
       <c r="C74">
-        <v>-0.07524141667669038</v>
+        <v>0.04733497621311376</v>
       </c>
       <c r="D74">
-        <v>-0.004998629641612451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04796662676858836</v>
+      </c>
+      <c r="E74">
+        <v>0.006928354407090941</v>
+      </c>
+      <c r="F74">
+        <v>-0.001051895031560025</v>
+      </c>
+      <c r="G74">
+        <v>-0.02965582827715631</v>
+      </c>
+      <c r="H74">
+        <v>0.1370717962673819</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09974817901226612</v>
+        <v>0.102383163700645</v>
       </c>
       <c r="C75">
-        <v>-0.0538640938085175</v>
+        <v>0.01945336026376686</v>
       </c>
       <c r="D75">
-        <v>-0.006617323418397932</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02770617873066448</v>
+      </c>
+      <c r="E75">
+        <v>-0.001173435135421135</v>
+      </c>
+      <c r="F75">
+        <v>-0.0006217817404279298</v>
+      </c>
+      <c r="G75">
+        <v>-0.006101358386235487</v>
+      </c>
+      <c r="H75">
+        <v>0.0986837103792827</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1269106484589596</v>
+        <v>0.1382791202015973</v>
       </c>
       <c r="C76">
-        <v>-0.07526997635307155</v>
+        <v>0.03736089628548021</v>
       </c>
       <c r="D76">
-        <v>-0.02190588819334705</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.06053624741739507</v>
+      </c>
+      <c r="E76">
+        <v>-0.01015114048988165</v>
+      </c>
+      <c r="F76">
+        <v>0.02985261558536776</v>
+      </c>
+      <c r="G76">
+        <v>0.0205222647351644</v>
+      </c>
+      <c r="H76">
+        <v>0.2292410974551356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178488411467206</v>
+        <v>0.1004397747015641</v>
       </c>
       <c r="C77">
-        <v>-0.04243731857799236</v>
+        <v>-0.007584455557698926</v>
       </c>
       <c r="D77">
-        <v>-0.08311827041176086</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04302166511495343</v>
+      </c>
+      <c r="E77">
+        <v>-0.03887549560323245</v>
+      </c>
+      <c r="F77">
+        <v>0.07275377305863182</v>
+      </c>
+      <c r="G77">
+        <v>0.8010701099304387</v>
+      </c>
+      <c r="H77">
+        <v>-0.3429380014683871</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1060548103362643</v>
+        <v>0.1519763165147749</v>
       </c>
       <c r="C78">
-        <v>-0.0466087261353188</v>
+        <v>0.03243642612251674</v>
       </c>
       <c r="D78">
-        <v>-0.08567854853620931</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.08372217608139539</v>
+      </c>
+      <c r="E78">
+        <v>-0.05797017619618199</v>
+      </c>
+      <c r="F78">
+        <v>0.05651428752985915</v>
+      </c>
+      <c r="G78">
+        <v>0.03559266100091048</v>
+      </c>
+      <c r="H78">
+        <v>-0.08041993715857214</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1407198125686573</v>
+        <v>0.14479735371806</v>
       </c>
       <c r="C79">
-        <v>-0.07578164784553607</v>
+        <v>0.03008386489787952</v>
       </c>
       <c r="D79">
-        <v>-0.02116033436470428</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05100227995781357</v>
+      </c>
+      <c r="E79">
+        <v>0.01789201864113621</v>
+      </c>
+      <c r="F79">
+        <v>0.01510414680267178</v>
+      </c>
+      <c r="G79">
+        <v>0.0238532706126901</v>
+      </c>
+      <c r="H79">
+        <v>0.1724559168557972</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04231491773795003</v>
+        <v>0.04351300406366632</v>
       </c>
       <c r="C80">
-        <v>-0.02354714839624984</v>
+        <v>0.01169250292209702</v>
       </c>
       <c r="D80">
-        <v>-0.02695078846499752</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01608591329158868</v>
+      </c>
+      <c r="E80">
+        <v>0.0419339112826214</v>
+      </c>
+      <c r="F80">
+        <v>0.006936363992760284</v>
+      </c>
+      <c r="G80">
+        <v>-0.01534264613540905</v>
+      </c>
+      <c r="H80">
+        <v>0.03819330780104592</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1215839396309808</v>
+        <v>0.125711323298511</v>
       </c>
       <c r="C81">
-        <v>-0.07510421088869183</v>
+        <v>0.03834045184961667</v>
       </c>
       <c r="D81">
-        <v>-0.01839033345026775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03468894149358257</v>
+      </c>
+      <c r="E81">
+        <v>-0.005451483618902906</v>
+      </c>
+      <c r="F81">
+        <v>0.01716699199948627</v>
+      </c>
+      <c r="G81">
+        <v>-0.00396532405139278</v>
+      </c>
+      <c r="H81">
+        <v>0.150219380622887</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1287490987504106</v>
+        <v>0.1306184705924848</v>
       </c>
       <c r="C82">
-        <v>-0.07506275853418877</v>
+        <v>0.03758882193599829</v>
       </c>
       <c r="D82">
-        <v>-0.008858318793305274</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03878515160402129</v>
+      </c>
+      <c r="E82">
+        <v>0.02353332855395467</v>
+      </c>
+      <c r="F82">
+        <v>0.0368422891603231</v>
+      </c>
+      <c r="G82">
+        <v>0.003363656954845863</v>
+      </c>
+      <c r="H82">
+        <v>0.2239605012746495</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06584230825050513</v>
+        <v>0.08283176160610707</v>
       </c>
       <c r="C83">
-        <v>0.0139623107102008</v>
+        <v>-0.02536706239766855</v>
       </c>
       <c r="D83">
-        <v>-0.01934084663404158</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.01614312768681749</v>
+      </c>
+      <c r="E83">
+        <v>-0.01374403936895739</v>
+      </c>
+      <c r="F83">
+        <v>0.03359538794910558</v>
+      </c>
+      <c r="G83">
+        <v>-0.04585277771460632</v>
+      </c>
+      <c r="H83">
+        <v>-0.03128242263090014</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02994147888725954</v>
+        <v>0.03452234442489109</v>
       </c>
       <c r="C84">
-        <v>-0.04002810795373946</v>
+        <v>0.01810304688654912</v>
       </c>
       <c r="D84">
-        <v>-0.03486000742848264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04577082218270698</v>
+      </c>
+      <c r="E84">
+        <v>-0.02159084087762134</v>
+      </c>
+      <c r="F84">
+        <v>-0.03642189021985668</v>
+      </c>
+      <c r="G84">
+        <v>-0.03126899722301935</v>
+      </c>
+      <c r="H84">
+        <v>0.02618162897598093</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1160788050579924</v>
+        <v>0.1216438470911239</v>
       </c>
       <c r="C85">
-        <v>-0.04447102190632426</v>
+        <v>0.01132529382615278</v>
       </c>
       <c r="D85">
-        <v>-0.04703796319479527</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.0419123946434043</v>
+      </c>
+      <c r="E85">
+        <v>-0.01530586871216626</v>
+      </c>
+      <c r="F85">
+        <v>0.03491092548954347</v>
+      </c>
+      <c r="G85">
+        <v>-0.007357976083752993</v>
+      </c>
+      <c r="H85">
+        <v>0.1421816732626336</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05110586930421245</v>
+        <v>0.05496797949477192</v>
       </c>
       <c r="C86">
-        <v>-0.02678854904477688</v>
+        <v>0.005248450305600754</v>
       </c>
       <c r="D86">
-        <v>-0.06513582795202946</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03666821632081398</v>
+      </c>
+      <c r="E86">
+        <v>-0.03980242900156417</v>
+      </c>
+      <c r="F86">
+        <v>0.02670125325061732</v>
+      </c>
+      <c r="G86">
+        <v>-0.02963393076036508</v>
+      </c>
+      <c r="H86">
+        <v>-0.05667551437982427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1226626229375649</v>
+        <v>0.1257804543121785</v>
       </c>
       <c r="C87">
-        <v>-0.08486084381052575</v>
+        <v>0.03140326510767775</v>
       </c>
       <c r="D87">
-        <v>-0.06394800214004261</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07273177768659941</v>
+      </c>
+      <c r="E87">
+        <v>-0.02232716285915147</v>
+      </c>
+      <c r="F87">
+        <v>0.0246837050916149</v>
+      </c>
+      <c r="G87">
+        <v>0.1483245516320182</v>
+      </c>
+      <c r="H87">
+        <v>-0.07079475582790741</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05344413440037625</v>
+        <v>0.06334522912201773</v>
       </c>
       <c r="C88">
-        <v>-0.03785700740897322</v>
+        <v>0.01915752830597876</v>
       </c>
       <c r="D88">
-        <v>-0.02490880216260277</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04399526051176334</v>
+      </c>
+      <c r="E88">
+        <v>-0.002858142280105429</v>
+      </c>
+      <c r="F88">
+        <v>0.02228286365542719</v>
+      </c>
+      <c r="G88">
+        <v>0.009789460097873582</v>
+      </c>
+      <c r="H88">
+        <v>0.04858287969111075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07663300155651534</v>
+        <v>0.1038651330704935</v>
       </c>
       <c r="C89">
-        <v>-0.06241661265236272</v>
+        <v>0.1668213778132009</v>
       </c>
       <c r="D89">
-        <v>0.3188074055265736</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3221761412278763</v>
+      </c>
+      <c r="E89">
+        <v>-0.06115686618956068</v>
+      </c>
+      <c r="F89">
+        <v>0.07123598495004829</v>
+      </c>
+      <c r="G89">
+        <v>-0.02390502722255627</v>
+      </c>
+      <c r="H89">
+        <v>0.02031907908832742</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05776164996463804</v>
+        <v>0.07891326622547606</v>
       </c>
       <c r="C90">
-        <v>-0.04707325466894736</v>
+        <v>0.1313376694693888</v>
       </c>
       <c r="D90">
-        <v>0.2830478144793176</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.26698563349206</v>
+      </c>
+      <c r="E90">
+        <v>-0.05681465663639981</v>
+      </c>
+      <c r="F90">
+        <v>0.02864525915269561</v>
+      </c>
+      <c r="G90">
+        <v>0.0307588273637159</v>
+      </c>
+      <c r="H90">
+        <v>-0.01703913948713926</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08842554092390836</v>
+        <v>0.08977230380131659</v>
       </c>
       <c r="C91">
-        <v>-0.05727211396388909</v>
+        <v>0.02373847761477582</v>
       </c>
       <c r="D91">
-        <v>-0.01144691951869473</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03680612076322475</v>
+      </c>
+      <c r="E91">
+        <v>-0.006650638047215569</v>
+      </c>
+      <c r="F91">
+        <v>0.003302330174336847</v>
+      </c>
+      <c r="G91">
+        <v>-0.0184676233422073</v>
+      </c>
+      <c r="H91">
+        <v>0.08991159645675521</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06091609097466177</v>
+        <v>0.08125820574957968</v>
       </c>
       <c r="C92">
-        <v>-0.05670215441634533</v>
+        <v>0.1538425447065335</v>
       </c>
       <c r="D92">
-        <v>0.3327785326955262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3110718516107755</v>
+      </c>
+      <c r="E92">
+        <v>-0.05120917508328591</v>
+      </c>
+      <c r="F92">
+        <v>0.03682611996839102</v>
+      </c>
+      <c r="G92">
+        <v>0.005832243218545302</v>
+      </c>
+      <c r="H92">
+        <v>0.02257569177731618</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05197596478617088</v>
+        <v>0.07664091102115569</v>
       </c>
       <c r="C93">
-        <v>-0.0510246279791719</v>
+        <v>0.145629554267181</v>
       </c>
       <c r="D93">
-        <v>0.3003088404008084</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2810893457039265</v>
+      </c>
+      <c r="E93">
+        <v>-0.02968175917144709</v>
+      </c>
+      <c r="F93">
+        <v>0.0284875473221188</v>
+      </c>
+      <c r="G93">
+        <v>0.01473457311302749</v>
+      </c>
+      <c r="H93">
+        <v>0.003261263650795937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1286669648422873</v>
+        <v>0.1262541880379791</v>
       </c>
       <c r="C94">
-        <v>-0.0423694456387056</v>
+        <v>-0.001055006906951724</v>
       </c>
       <c r="D94">
-        <v>-0.04350383736095899</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04792122155851655</v>
+      </c>
+      <c r="E94">
+        <v>0.01993616289673345</v>
+      </c>
+      <c r="F94">
+        <v>0.01792614900687138</v>
+      </c>
+      <c r="G94">
+        <v>-0.03269822424705165</v>
+      </c>
+      <c r="H94">
+        <v>0.1093418226599204</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1196435579503526</v>
+        <v>0.1302228298061374</v>
       </c>
       <c r="C95">
-        <v>-0.03606597843551575</v>
+        <v>-0.001622381217701519</v>
       </c>
       <c r="D95">
-        <v>-0.0573328746039717</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06145517108493626</v>
+      </c>
+      <c r="E95">
+        <v>-0.004350018350183495</v>
+      </c>
+      <c r="F95">
+        <v>0.0546978007052417</v>
+      </c>
+      <c r="G95">
+        <v>0.03836273751764589</v>
+      </c>
+      <c r="H95">
+        <v>-0.08723645625992922</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2240466916966267</v>
+        <v>0.1951018917441312</v>
       </c>
       <c r="C97">
-        <v>-0.06105746295069463</v>
+        <v>-0.001093555580033584</v>
       </c>
       <c r="D97">
-        <v>0.1256197486723888</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06078780659123593</v>
+      </c>
+      <c r="E97">
+        <v>0.05492727702196389</v>
+      </c>
+      <c r="F97">
+        <v>-0.9381762395640834</v>
+      </c>
+      <c r="G97">
+        <v>0.05381082915446467</v>
+      </c>
+      <c r="H97">
+        <v>-0.03192293611356919</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2373556986507751</v>
+        <v>0.272909556047911</v>
       </c>
       <c r="C98">
-        <v>-0.07042625958579109</v>
+        <v>0.02518077414038615</v>
       </c>
       <c r="D98">
-        <v>-0.00959007723588793</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04212387642642791</v>
+      </c>
+      <c r="E98">
+        <v>0.1978364815648379</v>
+      </c>
+      <c r="F98">
+        <v>0.04170968084020332</v>
+      </c>
+      <c r="G98">
+        <v>-0.314840614220029</v>
+      </c>
+      <c r="H98">
+        <v>-0.1975905148398466</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4473064590621947</v>
+        <v>0.2864084334760973</v>
       </c>
       <c r="C99">
-        <v>0.8779862541797642</v>
+        <v>-0.8793092333459825</v>
       </c>
       <c r="D99">
-        <v>0.03103138119706516</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.3314866433684282</v>
+      </c>
+      <c r="E99">
+        <v>-0.06380599278840293</v>
+      </c>
+      <c r="F99">
+        <v>0.07456772765240298</v>
+      </c>
+      <c r="G99">
+        <v>0.01429905047457742</v>
+      </c>
+      <c r="H99">
+        <v>0.0679048099240098</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04408789085410087</v>
+        <v>0.04804028683784026</v>
       </c>
       <c r="C101">
-        <v>-0.04114466122014797</v>
+        <v>0.02889705711938932</v>
       </c>
       <c r="D101">
-        <v>-0.0002721716078310572</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.0174929324639993</v>
+      </c>
+      <c r="E101">
+        <v>-0.0543248660486972</v>
+      </c>
+      <c r="F101">
+        <v>0.01449116781981096</v>
+      </c>
+      <c r="G101">
+        <v>0.006727375941902892</v>
+      </c>
+      <c r="H101">
+        <v>0.0771088414053956</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
